--- a/data/trans_orig/P0802-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P0802-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>723755</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>694570</v>
+        <v>696313</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>751539</v>
+        <v>749388</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7015013538129428</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6732138455627963</v>
+        <v>0.6749031852471162</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7284311220731127</v>
+        <v>0.7263461285740465</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>711</v>
@@ -765,19 +765,19 @@
         <v>715623</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>677786</v>
+        <v>679987</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>751108</v>
+        <v>755537</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5441529880347874</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5153824892749227</v>
+        <v>0.5170558265261107</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5711355616630847</v>
+        <v>0.5745035072846797</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1428</v>
@@ -786,19 +786,19 @@
         <v>1439377</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1393134</v>
+        <v>1393126</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1482079</v>
+        <v>1483678</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6133269479236159</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5936224363209065</v>
+        <v>0.5936190813623039</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6315225489396329</v>
+        <v>0.6322038131130948</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>221057</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>195583</v>
+        <v>197536</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>245024</v>
+        <v>246888</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2142597106298969</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1895689578627404</v>
+        <v>0.1914624483132115</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2374897895104584</v>
+        <v>0.2392968003735764</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>423</v>
@@ -836,19 +836,19 @@
         <v>433781</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>398665</v>
+        <v>399062</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>467592</v>
+        <v>469874</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3298434644612441</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3031412238033594</v>
+        <v>0.3034433296746512</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3555527138795879</v>
+        <v>0.3572880714799584</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>654</v>
@@ -857,19 +857,19 @@
         <v>654838</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>610248</v>
+        <v>613408</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>697008</v>
+        <v>701318</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2790301883792892</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2600300465288861</v>
+        <v>0.2613768957598552</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2969993041123925</v>
+        <v>0.2988355685482518</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>86911</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>70452</v>
+        <v>71189</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>104847</v>
+        <v>104819</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08423893555716035</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06828606617840233</v>
+        <v>0.06900025933626364</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1016236668705359</v>
+        <v>0.1015961557966882</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>157</v>
@@ -907,19 +907,19 @@
         <v>165709</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>141431</v>
+        <v>142701</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>188567</v>
+        <v>191596</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1260035475039685</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1075428838165743</v>
+        <v>0.1085082062224637</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1433847906302495</v>
+        <v>0.1456876674580942</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>247</v>
@@ -928,19 +928,19 @@
         <v>252620</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>224290</v>
+        <v>224480</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>283646</v>
+        <v>284530</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.107642863697095</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09557136354211251</v>
+        <v>0.09565221331007197</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1208630227157533</v>
+        <v>0.1212398237535434</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>1579766</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1556492</v>
+        <v>1557464</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1599432</v>
+        <v>1599562</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9328885076930428</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9191446593399628</v>
+        <v>0.9197186468904877</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.944502113990908</v>
+        <v>0.9445786955617537</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1421</v>
@@ -1053,19 +1053,19 @@
         <v>1450284</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1426550</v>
+        <v>1426652</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1471396</v>
+        <v>1471926</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9134653852288159</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8985160773699226</v>
+        <v>0.8985802114371602</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.926762323533678</v>
+        <v>0.9270964403358897</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2955</v>
@@ -1074,19 +1074,19 @@
         <v>3030050</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2996839</v>
+        <v>2998136</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3059048</v>
+        <v>3059336</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.923489920823209</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9133681349452804</v>
+        <v>0.9137632404875079</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9323279947473171</v>
+        <v>0.932415581243121</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>90658</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>75134</v>
+        <v>72352</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>111675</v>
+        <v>111009</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05353585628229393</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04436854770224</v>
+        <v>0.04272544300061498</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06594644153461209</v>
+        <v>0.06555328480202857</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>97</v>
@@ -1124,19 +1124,19 @@
         <v>99913</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>81789</v>
+        <v>82301</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>121636</v>
+        <v>120177</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06293064240203856</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05151489083961887</v>
+        <v>0.05183771564245242</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0766129777436948</v>
+        <v>0.07569369080619691</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>188</v>
@@ -1145,19 +1145,19 @@
         <v>190572</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>165226</v>
+        <v>164632</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>217290</v>
+        <v>219187</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05808186651481721</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05035704855612511</v>
+        <v>0.05017598461337828</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06622516130745111</v>
+        <v>0.06680310104636754</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>22989</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14369</v>
+        <v>15046</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33349</v>
+        <v>32750</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01357563602466331</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008484943852141923</v>
+        <v>0.008884842824926447</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01969347200702741</v>
+        <v>0.01933944298471292</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -1195,19 +1195,19 @@
         <v>37475</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26596</v>
+        <v>27232</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>51032</v>
+        <v>51998</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0236039723691455</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01675152948435324</v>
+        <v>0.01715202952148183</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03214280102887161</v>
+        <v>0.03275111603436419</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>60</v>
@@ -1216,19 +1216,19 @@
         <v>60465</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46190</v>
+        <v>45960</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>77581</v>
+        <v>77239</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01842821266197373</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0140777915462281</v>
+        <v>0.01400767986801501</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02364482196412403</v>
+        <v>0.02354078367983323</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>516708</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>502519</v>
+        <v>502916</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>528118</v>
+        <v>527929</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9370695038120945</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9113386488919227</v>
+        <v>0.9120577076232811</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.957762107388023</v>
+        <v>0.9574202958173712</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>406</v>
@@ -1341,19 +1341,19 @@
         <v>427693</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>413375</v>
+        <v>413588</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>440374</v>
+        <v>440216</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8977381150385766</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8676838465431422</v>
+        <v>0.868131655150541</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9243548945656358</v>
+        <v>0.9240233326418715</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>902</v>
@@ -1362,19 +1362,19 @@
         <v>944401</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>924389</v>
+        <v>925889</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>960519</v>
+        <v>962937</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9188387444431577</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.899368957770004</v>
+        <v>0.9008275220838453</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9345207677234626</v>
+        <v>0.9368731521896164</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>23596</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14961</v>
+        <v>14915</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34924</v>
+        <v>35847</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04279169274089769</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02713157568515568</v>
+        <v>0.02704880358078453</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06333532724373434</v>
+        <v>0.06501083111254342</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -1412,19 +1412,19 @@
         <v>38379</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27122</v>
+        <v>27273</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>52075</v>
+        <v>51338</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08055875198778173</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05692922077938374</v>
+        <v>0.05724630925235861</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.109306793446598</v>
+        <v>0.1077597149534685</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>58</v>
@@ -1433,19 +1433,19 @@
         <v>61975</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>48070</v>
+        <v>47660</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>80752</v>
+        <v>78943</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06029735909727896</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04676851247461607</v>
+        <v>0.0463703076331748</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07856581894333506</v>
+        <v>0.07680631752878393</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>11105</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5136</v>
+        <v>5458</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20671</v>
+        <v>21932</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02013880344700776</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.009314015402445102</v>
+        <v>0.009897869504796042</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0374874676562842</v>
+        <v>0.03977411345861519</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -1483,19 +1483,19 @@
         <v>10340</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5108</v>
+        <v>5206</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17771</v>
+        <v>19020</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02170313297364167</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01072144335351232</v>
+        <v>0.01092812738370386</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03730089671136759</v>
+        <v>0.03992410583451823</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>19</v>
@@ -1504,19 +1504,19 @@
         <v>21444</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>13568</v>
+        <v>12847</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>34957</v>
+        <v>33178</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02086389645956336</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01320047010344433</v>
+        <v>0.01249939685331942</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03401054707941358</v>
+        <v>0.03228004286213002</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>2820227</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2782043</v>
+        <v>2776907</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2859184</v>
+        <v>2858080</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8607325945129319</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8490786432408671</v>
+        <v>0.8475111739101719</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.872622210900542</v>
+        <v>0.8722850801915306</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2538</v>
@@ -1629,19 +1629,19 @@
         <v>2593599</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2546799</v>
+        <v>2543258</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2643126</v>
+        <v>2639195</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7675194683220637</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7536697739065173</v>
+        <v>0.7526219458129769</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7821758962741636</v>
+        <v>0.7810124388057775</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5285</v>
@@ -1650,19 +1650,19 @@
         <v>5413828</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5348341</v>
+        <v>5350564</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5473463</v>
+        <v>5473740</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8134072008924328</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8035680599040773</v>
+        <v>0.8039020119138419</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8223672207040384</v>
+        <v>0.8224088606788151</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>335311</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>302079</v>
+        <v>303507</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>370527</v>
+        <v>372095</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1023366923051532</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09219432088312927</v>
+        <v>0.09263013196652013</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1130847136292031</v>
+        <v>0.1135633804732264</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>556</v>
@@ -1700,19 +1700,19 @@
         <v>572074</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>530593</v>
+        <v>530727</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>614249</v>
+        <v>617407</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1692927825703575</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1570175986518373</v>
+        <v>0.1570570404962851</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1817737523999029</v>
+        <v>0.1827081504874692</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>900</v>
@@ -1721,19 +1721,19 @@
         <v>907384</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>854667</v>
+        <v>854996</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>962904</v>
+        <v>963915</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1363310819000479</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.128410509597045</v>
+        <v>0.1284599359425139</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1446726238186077</v>
+        <v>0.1448245419183362</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>121005</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>100627</v>
+        <v>100590</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>144209</v>
+        <v>145279</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03693071318191486</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03071145832284695</v>
+        <v>0.03069993653624647</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04401252792700989</v>
+        <v>0.04433909061627581</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>203</v>
@@ -1771,19 +1771,19 @@
         <v>213524</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>184265</v>
+        <v>185663</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>244666</v>
+        <v>242527</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06318774910757882</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05452913585807757</v>
+        <v>0.05494279247666894</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07240373657635334</v>
+        <v>0.0717707056896239</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>326</v>
@@ -1792,19 +1792,19 @@
         <v>334529</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>297347</v>
+        <v>302584</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>370959</v>
+        <v>372511</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05026171720751924</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04467523496622976</v>
+        <v>0.04546213280088623</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05573523062472669</v>
+        <v>0.05596830889805599</v>
       </c>
     </row>
     <row r="19">
@@ -2135,19 +2135,19 @@
         <v>651378</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>622210</v>
+        <v>618579</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>682422</v>
+        <v>680469</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6683244372621363</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6383980398928127</v>
+        <v>0.6346720176355111</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7001767193306542</v>
+        <v>0.6981727656809404</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>635</v>
@@ -2156,19 +2156,19 @@
         <v>683219</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>643255</v>
+        <v>645296</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>715548</v>
+        <v>718862</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5111203456248957</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4812227342342676</v>
+        <v>0.4827497806756968</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5353057075700893</v>
+        <v>0.5377845989134262</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1248</v>
@@ -2177,19 +2177,19 @@
         <v>1334597</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1286823</v>
+        <v>1287359</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1382706</v>
+        <v>1382875</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5774096219203182</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.55674044445172</v>
+        <v>0.5569723007817647</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5982237465151341</v>
+        <v>0.5982970725740361</v>
       </c>
     </row>
     <row r="5">
@@ -2206,19 +2206,19 @@
         <v>199080</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>174049</v>
+        <v>175946</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>226231</v>
+        <v>228212</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2042596454725915</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1785770124938399</v>
+        <v>0.1805238223059065</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2321171383897245</v>
+        <v>0.2341497234209339</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>358</v>
@@ -2227,19 +2227,19 @@
         <v>381132</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>350400</v>
+        <v>348669</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>413057</v>
+        <v>413992</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2851271625325262</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2621362765320612</v>
+        <v>0.2608416421923748</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3090103136166949</v>
+        <v>0.3097097374594054</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>543</v>
@@ -2248,19 +2248,19 @@
         <v>580212</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>540790</v>
+        <v>539708</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>623938</v>
+        <v>623585</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2510272283267367</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2339713809396353</v>
+        <v>0.2335030650565116</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2699450158390391</v>
+        <v>0.2697925189269762</v>
       </c>
     </row>
     <row r="6">
@@ -2277,19 +2277,19 @@
         <v>124185</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>105094</v>
+        <v>103367</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>148584</v>
+        <v>148084</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1274159172652723</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1078278577870448</v>
+        <v>0.1060561392627853</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1524493472301437</v>
+        <v>0.1519361943004903</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>253</v>
@@ -2298,19 +2298,19 @@
         <v>272358</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>246249</v>
+        <v>242561</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>304908</v>
+        <v>304494</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.203752491842578</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1842202006060538</v>
+        <v>0.1814613967090372</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2281035048500573</v>
+        <v>0.2277941550498748</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>363</v>
@@ -2319,19 +2319,19 @@
         <v>396543</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>357016</v>
+        <v>357555</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>435845</v>
+        <v>430586</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1715631497529451</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1544618202327791</v>
+        <v>0.1546951596891067</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1885670457062888</v>
+        <v>0.1862917986280684</v>
       </c>
     </row>
     <row r="7">
@@ -2423,19 +2423,19 @@
         <v>1787368</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1758546</v>
+        <v>1760349</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1814480</v>
+        <v>1813003</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9119055697711178</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8972008521357253</v>
+        <v>0.8981205091083455</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9257380099709948</v>
+        <v>0.9249844098609996</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1437</v>
@@ -2444,19 +2444,19 @@
         <v>1536866</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1505253</v>
+        <v>1504133</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1563362</v>
+        <v>1566857</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8743108478355894</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8563262466441509</v>
+        <v>0.855688988354499</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8893842039243552</v>
+        <v>0.8913724517920876</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3132</v>
@@ -2465,19 +2465,19 @@
         <v>3324234</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3285450</v>
+        <v>3282205</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3362449</v>
+        <v>3360110</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8941307006354039</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8836988069387196</v>
+        <v>0.8828261308568608</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9044094919103125</v>
+        <v>0.9037802989380905</v>
       </c>
     </row>
     <row r="9">
@@ -2494,19 +2494,19 @@
         <v>134625</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>111201</v>
+        <v>112650</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>160689</v>
+        <v>160292</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06868518634298346</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05673435527222396</v>
+        <v>0.05747318581447639</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08198245344494805</v>
+        <v>0.08178009134237842</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>142</v>
@@ -2515,19 +2515,19 @@
         <v>157340</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>133067</v>
+        <v>132155</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>182402</v>
+        <v>183409</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08950961225128949</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07570047347860286</v>
+        <v>0.07518201288218999</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1037669112816412</v>
+        <v>0.1043399639902548</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>265</v>
@@ -2536,19 +2536,19 @@
         <v>291966</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>259907</v>
+        <v>260885</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>324485</v>
+        <v>328647</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07853102177651286</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06990797938335808</v>
+        <v>0.07017106876336932</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.087277906348737</v>
+        <v>0.08839744062042756</v>
       </c>
     </row>
     <row r="10">
@@ -2565,19 +2565,19 @@
         <v>38043</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25982</v>
+        <v>26002</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51716</v>
+        <v>51213</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01940924388589878</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01325588797325352</v>
+        <v>0.01326594254820736</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02638544175519189</v>
+        <v>0.02612876278831201</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -2586,19 +2586,19 @@
         <v>63597</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>48436</v>
+        <v>48474</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>84083</v>
+        <v>81539</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0361795399131211</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02755484778736386</v>
+        <v>0.0275766889221476</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04783421222620829</v>
+        <v>0.04638679741323531</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>91</v>
@@ -2607,19 +2607,19 @@
         <v>101639</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>82765</v>
+        <v>82577</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>124953</v>
+        <v>123233</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02733827758808329</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02226154191192394</v>
+        <v>0.02221111594119462</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03360899467976882</v>
+        <v>0.03314628948849693</v>
       </c>
     </row>
     <row r="11">
@@ -2711,19 +2711,19 @@
         <v>445078</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>430322</v>
+        <v>430585</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>457365</v>
+        <v>456865</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9249706426881878</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8943042976254609</v>
+        <v>0.8948513699360677</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.950504888806766</v>
+        <v>0.9494658045038815</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>377</v>
@@ -2732,19 +2732,19 @@
         <v>420453</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>407902</v>
+        <v>408247</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>431374</v>
+        <v>431864</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9167565702878946</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8893909865079764</v>
+        <v>0.8901428263488653</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9405682374491182</v>
+        <v>0.9416377865222471</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>785</v>
@@ -2753,19 +2753,19 @@
         <v>865532</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>845676</v>
+        <v>845510</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>881673</v>
+        <v>880263</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9209621528485396</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8998339999749768</v>
+        <v>0.8996577924567413</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9381368496539058</v>
+        <v>0.9366366823679076</v>
       </c>
     </row>
     <row r="13">
@@ -2782,19 +2782,19 @@
         <v>24820</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15725</v>
+        <v>16151</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>37202</v>
+        <v>37907</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05158063229242138</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03267969961673277</v>
+        <v>0.03356635131385636</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07731413716018989</v>
+        <v>0.07877885298734011</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -2803,19 +2803,19 @@
         <v>28978</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19145</v>
+        <v>19285</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41012</v>
+        <v>40036</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06318366788158684</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.041743732013705</v>
+        <v>0.04204836244579903</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08942180253087267</v>
+        <v>0.08729432258323409</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>47</v>
@@ -2824,19 +2824,19 @@
         <v>53798</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>39559</v>
+        <v>41459</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>71664</v>
+        <v>70669</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05724294545471916</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04209247271880479</v>
+        <v>0.04411357318969289</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07625376791702168</v>
+        <v>0.07519446470497837</v>
       </c>
     </row>
     <row r="14">
@@ -2853,19 +2853,19 @@
         <v>11283</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5394</v>
+        <v>5102</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>21269</v>
+        <v>21946</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02344872501939078</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01121014362143813</v>
+        <v>0.01060247347337262</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04420156575624497</v>
+        <v>0.04560778946818676</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -2874,19 +2874,19 @@
         <v>9200</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4240</v>
+        <v>4924</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16537</v>
+        <v>16830</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02005976183051852</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.009245013543524685</v>
+        <v>0.01073646768483786</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03605707738435895</v>
+        <v>0.03669645537182824</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>18</v>
@@ -2895,19 +2895,19 @@
         <v>20483</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>12045</v>
+        <v>12371</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>31372</v>
+        <v>31461</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02179490169674128</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0128160469439599</v>
+        <v>0.01316314664469022</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03338070865937712</v>
+        <v>0.03347620350004422</v>
       </c>
     </row>
     <row r="15">
@@ -2999,19 +2999,19 @@
         <v>2883825</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2838294</v>
+        <v>2839285</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2923240</v>
+        <v>2929090</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8442453253086795</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8309160544446379</v>
+        <v>0.8312061008085296</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8557843062616579</v>
+        <v>0.8574967628748104</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2449</v>
@@ -3020,19 +3020,19 @@
         <v>2640538</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2582247</v>
+        <v>2580674</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2691955</v>
+        <v>2693154</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.743155648453979</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7267502147106905</v>
+        <v>0.7263073001348382</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7576262941604259</v>
+        <v>0.757963840453393</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5165</v>
@@ -3041,19 +3041,19 @@
         <v>5524363</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5454560</v>
+        <v>5449974</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5599578</v>
+        <v>5590088</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7927048056914835</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7826885512594474</v>
+        <v>0.7820304986340491</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8034976653390141</v>
+        <v>0.8021358185848964</v>
       </c>
     </row>
     <row r="17">
@@ -3070,19 +3070,19 @@
         <v>358525</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>322981</v>
+        <v>320383</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>400477</v>
+        <v>396922</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1049590018889981</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09455321318870742</v>
+        <v>0.09379264563979109</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1172403659711956</v>
+        <v>0.116199809519192</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>526</v>
@@ -3091,19 +3091,19 @@
         <v>567450</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>525215</v>
+        <v>526565</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>618395</v>
+        <v>611412</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.159703773827865</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.147817127821788</v>
+        <v>0.1481970485661165</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1740416599269809</v>
+        <v>0.1720764863255659</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>855</v>
@@ -3112,19 +3112,19 @@
         <v>925976</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>863799</v>
+        <v>870866</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>993823</v>
+        <v>982166</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1328705956327355</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1239486806456396</v>
+        <v>0.1249627931335052</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1426061765628676</v>
+        <v>0.1409334316220848</v>
       </c>
     </row>
     <row r="18">
@@ -3141,19 +3141,19 @@
         <v>173511</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>146409</v>
+        <v>148669</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>202760</v>
+        <v>202051</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05079567280232249</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04286159625408496</v>
+        <v>0.04352308243556706</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05935848014306282</v>
+        <v>0.05915073270997843</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>318</v>
@@ -3162,19 +3162,19 @@
         <v>345154</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>309546</v>
+        <v>309289</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>380040</v>
+        <v>383866</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09714057771815603</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08711904233084483</v>
+        <v>0.08704672540889022</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1069587737008522</v>
+        <v>0.1080356682545325</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>472</v>
@@ -3183,19 +3183,19 @@
         <v>518665</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>473543</v>
+        <v>469997</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>563144</v>
+        <v>563150</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07442459867578109</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06794992676877429</v>
+        <v>0.06744110335825015</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08080702465188996</v>
+        <v>0.08080788164188293</v>
       </c>
     </row>
     <row r="19">
@@ -3526,19 +3526,19 @@
         <v>500879</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>475325</v>
+        <v>476152</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>527409</v>
+        <v>527046</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6639896038446453</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6301144630879172</v>
+        <v>0.6312102945400008</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6991601178042375</v>
+        <v>0.698678411340907</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>476</v>
@@ -3547,19 +3547,19 @@
         <v>508108</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>476301</v>
+        <v>474952</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>542593</v>
+        <v>541739</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5108355665318075</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4788582416369407</v>
+        <v>0.4775023221757158</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5455062307538113</v>
+        <v>0.5446476476482357</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>970</v>
@@ -3568,19 +3568,19 @@
         <v>1008986</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>968458</v>
+        <v>966870</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1052984</v>
+        <v>1051049</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5768909098322462</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5537190062308245</v>
+        <v>0.5528106091351032</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6020465835717586</v>
+        <v>0.6009403486551371</v>
       </c>
     </row>
     <row r="5">
@@ -3597,19 +3597,19 @@
         <v>158439</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>137051</v>
+        <v>136778</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>179970</v>
+        <v>182141</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2100347982663581</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1816814063170901</v>
+        <v>0.1813193617442486</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2385777418137373</v>
+        <v>0.2414553054699482</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>243</v>
@@ -3618,19 +3618,19 @@
         <v>277189</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>245644</v>
+        <v>244370</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>307723</v>
+        <v>306978</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2786772710295015</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2469631255531568</v>
+        <v>0.2456819542942942</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3093749314714867</v>
+        <v>0.3086260978401905</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>410</v>
@@ -3639,19 +3639,19 @@
         <v>435628</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>402600</v>
+        <v>402050</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>472160</v>
+        <v>478230</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2490717693860892</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2301879194107444</v>
+        <v>0.2298733120274694</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2699587904637288</v>
+        <v>0.2734292604522354</v>
       </c>
     </row>
     <row r="6">
@@ -3668,19 +3668,19 @@
         <v>95029</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>78603</v>
+        <v>77622</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>113791</v>
+        <v>113003</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1259755978889965</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1041999268271898</v>
+        <v>0.1028996388558352</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1508465042508632</v>
+        <v>0.1498027863572118</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>173</v>
@@ -3689,19 +3689,19 @@
         <v>209363</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>182073</v>
+        <v>183695</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>238721</v>
+        <v>240172</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.210487162438691</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1830509006987247</v>
+        <v>0.1846812310925845</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2400024020844639</v>
+        <v>0.241460921602368</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>274</v>
@@ -3710,19 +3710,19 @@
         <v>304392</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>273145</v>
+        <v>271213</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>340018</v>
+        <v>339750</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1740373207816646</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1561714736698286</v>
+        <v>0.1550670697813732</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1944064198861567</v>
+        <v>0.1942529765178934</v>
       </c>
     </row>
     <row r="7">
@@ -3814,19 +3814,19 @@
         <v>1880542</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1851749</v>
+        <v>1852380</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1906726</v>
+        <v>1907159</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9056808869307273</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8918138500390241</v>
+        <v>0.8921177729018168</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9182910248523936</v>
+        <v>0.9184997233651762</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1664</v>
@@ -3835,19 +3835,19 @@
         <v>1713485</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1681393</v>
+        <v>1677594</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1744359</v>
+        <v>1743950</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8617837358853829</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8456432951691055</v>
+        <v>0.8437330569174141</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8773119202810411</v>
+        <v>0.8771060055115341</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3433</v>
@@ -3856,19 +3856,19 @@
         <v>3594027</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3549992</v>
+        <v>3549902</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3637741</v>
+        <v>3637642</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8842079541899136</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8733743672169659</v>
+        <v>0.873352370261657</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.894962480739491</v>
+        <v>0.894938323454357</v>
       </c>
     </row>
     <row r="9">
@@ -3885,19 +3885,19 @@
         <v>147791</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>122910</v>
+        <v>125705</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>171195</v>
+        <v>173346</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0711768513514314</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05919428295053103</v>
+        <v>0.06054042477834665</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08244872184124535</v>
+        <v>0.08348440957138106</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>165</v>
@@ -3906,19 +3906,19 @@
         <v>185127</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>157887</v>
+        <v>161238</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>212690</v>
+        <v>216677</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.09310794067465269</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0794079423643673</v>
+        <v>0.08109364090870066</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1069708882859378</v>
+        <v>0.1089760273555311</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>304</v>
@@ -3927,19 +3927,19 @@
         <v>332917</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>295481</v>
+        <v>298298</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>369830</v>
+        <v>370038</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08190476409191558</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07269473542997598</v>
+        <v>0.07338777984844856</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09098612012369454</v>
+        <v>0.09103722801596945</v>
       </c>
     </row>
     <row r="10">
@@ -3956,19 +3956,19 @@
         <v>48052</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34392</v>
+        <v>34505</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>64344</v>
+        <v>64891</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02314226171784125</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01656336471255027</v>
+        <v>0.01661759296881619</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03098837151743626</v>
+        <v>0.03125187889093229</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>79</v>
@@ -3977,19 +3977,19 @@
         <v>89689</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>70719</v>
+        <v>72716</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>111952</v>
+        <v>110121</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04510832343996438</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0355673375399737</v>
+        <v>0.0365720596550884</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05630521145600746</v>
+        <v>0.0553845567474627</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>123</v>
@@ -3998,19 +3998,19 @@
         <v>137741</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>113195</v>
+        <v>114665</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>164371</v>
+        <v>161667</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03388728171817079</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02784831108883598</v>
+        <v>0.02820993677390038</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04043868622076593</v>
+        <v>0.03977366445663669</v>
       </c>
     </row>
     <row r="11">
@@ -4102,19 +4102,19 @@
         <v>504216</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>488935</v>
+        <v>490163</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>515873</v>
+        <v>516426</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9219769784979165</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8940350465769851</v>
+        <v>0.8962807798940523</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9432924455962022</v>
+        <v>0.9443025833477985</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>487</v>
@@ -4123,19 +4123,19 @@
         <v>502790</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>487375</v>
+        <v>487050</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>516775</v>
+        <v>515133</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9155948384462763</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.887523231601977</v>
+        <v>0.8869316256321919</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9410627893348837</v>
+        <v>0.9380724504094476</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>951</v>
@@ -4144,19 +4144,19 @@
         <v>1007007</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>987100</v>
+        <v>986920</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1026716</v>
+        <v>1026022</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9187793455574543</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9006162055644797</v>
+        <v>0.9004524942889575</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9367611816194177</v>
+        <v>0.936128591777356</v>
       </c>
     </row>
     <row r="13">
@@ -4173,19 +4173,19 @@
         <v>32286</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21560</v>
+        <v>20893</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46233</v>
+        <v>45579</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05903575191425486</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03942378794519359</v>
+        <v>0.03820306563633342</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08453874714372592</v>
+        <v>0.08334186739918557</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -4194,19 +4194,19 @@
         <v>29874</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19824</v>
+        <v>19916</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43241</v>
+        <v>43086</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05440135456369718</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03610050076438916</v>
+        <v>0.03626851821744085</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0787428914666659</v>
+        <v>0.07846091381476381</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>53</v>
@@ -4215,19 +4215,19 @@
         <v>62160</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>45612</v>
+        <v>47216</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>79488</v>
+        <v>79773</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05671378757197668</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04161568647217519</v>
+        <v>0.04307960604578469</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0725241756135131</v>
+        <v>0.07278371026929475</v>
       </c>
     </row>
     <row r="14">
@@ -4244,19 +4244,19 @@
         <v>10384</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5753</v>
+        <v>5324</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19403</v>
+        <v>18317</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01898726958782863</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01051982042131746</v>
+        <v>0.009735409990516409</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03547880322168397</v>
+        <v>0.03349374766522353</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -4265,19 +4265,19 @@
         <v>16476</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8935</v>
+        <v>8927</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28038</v>
+        <v>27007</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03000380699002652</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01627048729752115</v>
+        <v>0.01625633159610273</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05105784131823297</v>
+        <v>0.04918128804807765</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -4286,19 +4286,19 @@
         <v>26860</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>16211</v>
+        <v>17253</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>39597</v>
+        <v>40715</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02450686687056902</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01479086804972949</v>
+        <v>0.01574171788456066</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03612763241373661</v>
+        <v>0.03714787491673461</v>
       </c>
     </row>
     <row r="15">
@@ -4390,19 +4390,19 @@
         <v>2885637</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2843448</v>
+        <v>2843808</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2921786</v>
+        <v>2931303</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8543408777660407</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8418499482168678</v>
+        <v>0.841956664904613</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8650434941316917</v>
+        <v>0.8678609214382212</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2627</v>
@@ -4411,19 +4411,19 @@
         <v>2724382</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2671324</v>
+        <v>2672652</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2776024</v>
+        <v>2779527</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7713207616668147</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7562991978126838</v>
+        <v>0.7566750016524444</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7859414954853656</v>
+        <v>0.7869332678390207</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5354</v>
@@ -4432,19 +4432,19 @@
         <v>5610019</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5537267</v>
+        <v>5544601</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5673078</v>
+        <v>5672989</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8119027669256572</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8013738433362259</v>
+        <v>0.8024352531125535</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.821028862879662</v>
+        <v>0.8210160534093317</v>
       </c>
     </row>
     <row r="17">
@@ -4461,19 +4461,19 @@
         <v>338515</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>305265</v>
+        <v>300673</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>375594</v>
+        <v>374277</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1002231343897778</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09037886129098693</v>
+        <v>0.08901917873392427</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1112008319915471</v>
+        <v>0.1108109568147773</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>434</v>
@@ -4482,19 +4482,19 @@
         <v>492190</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>449258</v>
+        <v>449351</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>535963</v>
+        <v>538609</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1393475854258907</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1271929575678281</v>
+        <v>0.1272191590665507</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.151740593526548</v>
+        <v>0.1524896953595985</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>767</v>
@@ -4503,19 +4503,19 @@
         <v>830705</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>779215</v>
+        <v>776060</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>897550</v>
+        <v>885056</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1202227184382419</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1127708193302981</v>
+        <v>0.1123142902444206</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.129896817624468</v>
+        <v>0.1280886176190477</v>
       </c>
     </row>
     <row r="18">
@@ -4532,19 +4532,19 @@
         <v>153465</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>131154</v>
+        <v>131967</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>178206</v>
+        <v>180671</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0454359878441815</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03883022017320119</v>
+        <v>0.03907095120483779</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0527607834004954</v>
+        <v>0.05349076772882899</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>265</v>
@@ -4553,19 +4553,19 @@
         <v>315528</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>281762</v>
+        <v>278450</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>353200</v>
+        <v>351385</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08933165290729449</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07977191886144912</v>
+        <v>0.07883416464072471</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09999726746032291</v>
+        <v>0.0994833130651117</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>420</v>
@@ -4574,19 +4574,19 @@
         <v>468994</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>424376</v>
+        <v>428368</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>512138</v>
+        <v>511349</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06787451463610088</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06141730848703984</v>
+        <v>0.0619950409665073</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07411854745089286</v>
+        <v>0.07400427943952451</v>
       </c>
     </row>
     <row r="19">
@@ -4917,19 +4917,19 @@
         <v>382057</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>359506</v>
+        <v>359915</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>402599</v>
+        <v>403198</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6603933797897032</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.621414131998748</v>
+        <v>0.6221214818786674</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6959006259160428</v>
+        <v>0.6969356987430493</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>621</v>
@@ -4938,19 +4938,19 @@
         <v>381318</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>359613</v>
+        <v>358922</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>402574</v>
+        <v>404680</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4641949101391749</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4377713465627912</v>
+        <v>0.4369310455123885</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4900696288084316</v>
+        <v>0.4926341672628446</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1054</v>
@@ -4959,19 +4959,19 @@
         <v>763375</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>730599</v>
+        <v>731768</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>795763</v>
+        <v>794880</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5452715687379248</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.521859500738879</v>
+        <v>0.5226948582938261</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5684060114052775</v>
+        <v>0.5677754013354498</v>
       </c>
     </row>
     <row r="5">
@@ -4988,19 +4988,19 @@
         <v>112141</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>95816</v>
+        <v>95545</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>132329</v>
+        <v>132479</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1938383395401114</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1656199829555798</v>
+        <v>0.1651510098132082</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2287343712496887</v>
+        <v>0.228993131873524</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>440</v>
@@ -5009,19 +5009,19 @@
         <v>238778</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>219310</v>
+        <v>218375</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>257326</v>
+        <v>257908</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.290674640009421</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2669748621455809</v>
+        <v>0.2658366195561168</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3132542817350994</v>
+        <v>0.3139616240149563</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>581</v>
@@ -5030,19 +5030,19 @@
         <v>350919</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>324674</v>
+        <v>324775</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>378427</v>
+        <v>378321</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2506582031478043</v>
+        <v>0.2506582031478042</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2319112129797269</v>
+        <v>0.2319834997375187</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2703070295418977</v>
+        <v>0.2702311030776742</v>
       </c>
     </row>
     <row r="6">
@@ -5059,19 +5059,19 @@
         <v>84331</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>69845</v>
+        <v>70662</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>101138</v>
+        <v>100641</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1457682806701854</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1207293565395316</v>
+        <v>0.1221409510684298</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1748186847816316</v>
+        <v>0.1739595375907367</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>365</v>
@@ -5080,19 +5080,19 @@
         <v>201365</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>184485</v>
+        <v>184230</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>220650</v>
+        <v>221276</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2451304498514041</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2245818096727749</v>
+        <v>0.2242709634111165</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2686060578747176</v>
+        <v>0.2693686040691146</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>482</v>
@@ -5101,19 +5101,19 @@
         <v>285696</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>262278</v>
+        <v>259979</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>311138</v>
+        <v>310268</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2040702281142709</v>
+        <v>0.2040702281142708</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1873426811474247</v>
+        <v>0.1857002980764497</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2222430087843649</v>
+        <v>0.2216217372918157</v>
       </c>
     </row>
     <row r="7">
@@ -5205,19 +5205,19 @@
         <v>1946889</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1912465</v>
+        <v>1914712</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1977914</v>
+        <v>1979124</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8728228518831399</v>
+        <v>0.8728228518831398</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8573902025250867</v>
+        <v>0.8583971735100644</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.886731721485516</v>
+        <v>0.8872744835008403</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2369</v>
@@ -5226,19 +5226,19 @@
         <v>1836476</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1806909</v>
+        <v>1808004</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1863720</v>
+        <v>1864716</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8457596882145737</v>
+        <v>0.8457596882145736</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8321429826604748</v>
+        <v>0.8326472920396117</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8583064459339402</v>
+        <v>0.8587652502537407</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4051</v>
@@ -5247,19 +5247,19 @@
         <v>3783366</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3742156</v>
+        <v>3740332</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3826180</v>
+        <v>3826620</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8594731710891145</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8501115508789566</v>
+        <v>0.8496970819064833</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8691993986606952</v>
+        <v>0.8692994096603214</v>
       </c>
     </row>
     <row r="9">
@@ -5276,19 +5276,19 @@
         <v>219608</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>190634</v>
+        <v>192957</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>248226</v>
+        <v>249048</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.09845401669556808</v>
+        <v>0.09845401669556807</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08546441400570455</v>
+        <v>0.08650591949365384</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1112838840830404</v>
+        <v>0.1116523164492721</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>418</v>
@@ -5297,19 +5297,19 @@
         <v>252519</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>226867</v>
+        <v>227606</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>278026</v>
+        <v>275501</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1162937834836537</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1044800176429639</v>
+        <v>0.1048202803201228</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1280405875968105</v>
+        <v>0.1268773834443638</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>658</v>
@@ -5318,19 +5318,19 @@
         <v>472128</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>432946</v>
+        <v>434596</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>506524</v>
+        <v>513798</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1072539927433579</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09835310133506608</v>
+        <v>0.09872793416919408</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1150678091774265</v>
+        <v>0.1167203889784442</v>
       </c>
     </row>
     <row r="10">
@@ -5347,19 +5347,19 @@
         <v>64069</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>50293</v>
+        <v>49638</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>81243</v>
+        <v>80320</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.02872313142129211</v>
+        <v>0.0287231314212921</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02254704547197599</v>
+        <v>0.02225375080494633</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03642275032438267</v>
+        <v>0.03600892280189018</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>134</v>
@@ -5368,19 +5368,19 @@
         <v>82397</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>70128</v>
+        <v>67309</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>98407</v>
+        <v>95504</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.03794652830177269</v>
+        <v>0.03794652830177268</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03229615610323552</v>
+        <v>0.03099791038735613</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04531998491597018</v>
+        <v>0.04398266586169499</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>204</v>
@@ -5389,19 +5389,19 @@
         <v>146466</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>126341</v>
+        <v>124242</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>169128</v>
+        <v>167743</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03327283616752764</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02870115741655602</v>
+        <v>0.02822434360991695</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03842097983907088</v>
+        <v>0.03810633808295095</v>
       </c>
     </row>
     <row r="11">
@@ -5493,19 +5493,19 @@
         <v>661793</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>647846</v>
+        <v>647919</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>673852</v>
+        <v>673172</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9311676240869402</v>
+        <v>0.93116762408694</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9115435318774578</v>
+        <v>0.9116470811783145</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9481350590832498</v>
+        <v>0.947178380763021</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>889</v>
@@ -5514,19 +5514,19 @@
         <v>662855</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>649136</v>
+        <v>649110</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>675816</v>
+        <v>676118</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9019947137120174</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8833255294712591</v>
+        <v>0.8832904460441522</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9196310244985803</v>
+        <v>0.9200418799042226</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1509</v>
@@ -5535,19 +5535,19 @@
         <v>1324648</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1306629</v>
+        <v>1305443</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1342051</v>
+        <v>1341380</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.91633734210297</v>
+        <v>0.9163373421029699</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9038724932161292</v>
+        <v>0.9030523079264058</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.928375795336608</v>
+        <v>0.9279116300714274</v>
       </c>
     </row>
     <row r="13">
@@ -5564,19 +5564,19 @@
         <v>35461</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25981</v>
+        <v>25852</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>48867</v>
+        <v>47630</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04989514277817342</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03655645710214975</v>
+        <v>0.03637513887687156</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06875790959129938</v>
+        <v>0.0670165483274119</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>84</v>
@@ -5585,19 +5585,19 @@
         <v>51258</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40744</v>
+        <v>40934</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62597</v>
+        <v>63135</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06974997094838381</v>
+        <v>0.0697499709483838</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05544276179741282</v>
+        <v>0.05570242525767802</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0851809158689163</v>
+        <v>0.08591253733380433</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>128</v>
@@ -5606,19 +5606,19 @@
         <v>86719</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>73726</v>
+        <v>72847</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>102460</v>
+        <v>103342</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05998850325278032</v>
+        <v>0.05998850325278031</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05100068176313042</v>
+        <v>0.05039252093733221</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07087734698885707</v>
+        <v>0.07148783693355806</v>
       </c>
     </row>
     <row r="14">
@@ -5635,19 +5635,19 @@
         <v>13459</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7867</v>
+        <v>8140</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>21408</v>
+        <v>21920</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01893723313488656</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01106975243959754</v>
+        <v>0.01145307334999174</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03012243541568652</v>
+        <v>0.03084250123473842</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>31</v>
@@ -5656,19 +5656,19 @@
         <v>20764</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14222</v>
+        <v>14477</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>29867</v>
+        <v>31117</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.02825531533959876</v>
+        <v>0.02825531533959877</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01935265562896558</v>
+        <v>0.01970038600799535</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04064222147240822</v>
+        <v>0.04234250863223189</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>47</v>
@@ -5677,19 +5677,19 @@
         <v>34223</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>24865</v>
+        <v>25846</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>46747</v>
+        <v>46235</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.02367415464424977</v>
+        <v>0.02367415464424976</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01720052109332727</v>
+        <v>0.01787941958409716</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03233755191942961</v>
+        <v>0.03198327281128142</v>
       </c>
     </row>
     <row r="15">
@@ -5781,19 +5781,19 @@
         <v>2990739</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2947314</v>
+        <v>2947663</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3031935</v>
+        <v>3032705</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8496879804612978</v>
+        <v>0.8496879804612979</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8373505830585373</v>
+        <v>0.837449742209385</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8613918742072594</v>
+        <v>0.8616106766177917</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3879</v>
@@ -5802,19 +5802,19 @@
         <v>2880650</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2840000</v>
+        <v>2836347</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2924144</v>
+        <v>2919101</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7727622158944868</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7618574489123168</v>
+        <v>0.760877465531537</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7844300892692601</v>
+        <v>0.7830770629705683</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6614</v>
@@ -5823,19 +5823,19 @@
         <v>5871389</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5815113</v>
+        <v>5814357</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5930909</v>
+        <v>5926952</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8101216489976928</v>
+        <v>0.8101216489976927</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8023568197713478</v>
+        <v>0.8022524615076552</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.818334111692932</v>
+        <v>0.8177881130541411</v>
       </c>
     </row>
     <row r="17">
@@ -5852,19 +5852,19 @@
         <v>367211</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>333683</v>
+        <v>332203</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>404059</v>
+        <v>407922</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1043268420368836</v>
+        <v>0.1043268420368837</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09480142155936327</v>
+        <v>0.09438111072089823</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.114795721243185</v>
+        <v>0.1158931405659559</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>942</v>
@@ -5873,19 +5873,19 @@
         <v>542555</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>508995</v>
+        <v>512864</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>576242</v>
+        <v>577637</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1455456722946305</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1365428525653943</v>
+        <v>0.1375808193687834</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1545823902157536</v>
+        <v>0.1549566594560951</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1367</v>
@@ -5894,19 +5894,19 @@
         <v>909766</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>856659</v>
+        <v>863896</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>958894</v>
+        <v>958536</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1255275140055535</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1181999875879105</v>
+        <v>0.1191985480623167</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1323061979732358</v>
+        <v>0.1322566786019007</v>
       </c>
     </row>
     <row r="18">
@@ -5923,19 +5923,19 @@
         <v>161859</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>139212</v>
+        <v>139475</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>187427</v>
+        <v>184818</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.0459851775018185</v>
+        <v>0.04598517750181851</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03955094838502404</v>
+        <v>0.03962574756158503</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05324921276459788</v>
+        <v>0.05250787765380638</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>530</v>
@@ -5944,19 +5944,19 @@
         <v>304526</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>278774</v>
+        <v>278983</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>331906</v>
+        <v>331302</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08169211181088271</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07478390260866022</v>
+        <v>0.07483982532051574</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08903696967423035</v>
+        <v>0.08887489198913016</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>733</v>
@@ -5965,19 +5965,19 @@
         <v>466385</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>432222</v>
+        <v>430231</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>503253</v>
+        <v>500186</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06435083699675374</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05963703085604159</v>
+        <v>0.05936230372406404</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06943775178435001</v>
+        <v>0.06901462996360659</v>
       </c>
     </row>
     <row r="19">
